--- a/data/pca/factorExposure/factorExposure_2011-03-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.007304701064233441</v>
+        <v>-0.0133074265372351</v>
       </c>
       <c r="C2">
-        <v>0.004666887293229855</v>
+        <v>-0.0008707756469888452</v>
       </c>
       <c r="D2">
-        <v>-0.03091247010747952</v>
+        <v>-0.007098393254322263</v>
       </c>
       <c r="E2">
-        <v>0.002982675400002048</v>
+        <v>-0.01559069364409236</v>
       </c>
       <c r="F2">
-        <v>0.007076220963535389</v>
+        <v>0.02066728045600951</v>
       </c>
       <c r="G2">
-        <v>-0.01552646232476889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.005619926939397695</v>
+      </c>
+      <c r="H2">
+        <v>-0.005033937647541798</v>
+      </c>
+      <c r="I2">
+        <v>0.02591173460941464</v>
+      </c>
+      <c r="J2">
+        <v>0.05703283452896279</v>
+      </c>
+      <c r="K2">
+        <v>0.02172103629794914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1054633916431</v>
+        <v>-0.1169397867269581</v>
       </c>
       <c r="C4">
-        <v>0.02566938217375748</v>
+        <v>0.05591663796657776</v>
       </c>
       <c r="D4">
-        <v>-0.04515133132010464</v>
+        <v>0.001790822244045973</v>
       </c>
       <c r="E4">
-        <v>-0.05649496164851169</v>
+        <v>-0.008925698114524828</v>
       </c>
       <c r="F4">
-        <v>0.03962798199534726</v>
+        <v>0.01755221444026522</v>
       </c>
       <c r="G4">
-        <v>-0.02416360791112827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06665579076981727</v>
+      </c>
+      <c r="H4">
+        <v>-0.1406935939187148</v>
+      </c>
+      <c r="I4">
+        <v>0.02806244214685257</v>
+      </c>
+      <c r="J4">
+        <v>-0.04726872100075325</v>
+      </c>
+      <c r="K4">
+        <v>0.01423844260222006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1278271329437741</v>
+        <v>-0.1224111625846183</v>
       </c>
       <c r="C6">
-        <v>0.02719387272879105</v>
+        <v>0.007246570397664174</v>
       </c>
       <c r="D6">
-        <v>-0.02755246660101939</v>
+        <v>-0.004431066503715053</v>
       </c>
       <c r="E6">
-        <v>0.01266200046218166</v>
+        <v>0.02704080452966333</v>
       </c>
       <c r="F6">
-        <v>-0.1654755638950822</v>
+        <v>0.006685820480898308</v>
       </c>
       <c r="G6">
-        <v>0.1046438960952017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05957476397199154</v>
+      </c>
+      <c r="H6">
+        <v>-0.02796520094006008</v>
+      </c>
+      <c r="I6">
+        <v>-0.1466790974516398</v>
+      </c>
+      <c r="J6">
+        <v>-0.357708499730049</v>
+      </c>
+      <c r="K6">
+        <v>-0.1923483768840791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09114772201354689</v>
+        <v>-0.07959787963029219</v>
       </c>
       <c r="C7">
-        <v>0.03695828476798357</v>
+        <v>0.060693722454851</v>
       </c>
       <c r="D7">
-        <v>-0.03881498184366173</v>
+        <v>-0.0273882684348913</v>
       </c>
       <c r="E7">
-        <v>-0.0247852097951589</v>
+        <v>-0.02124995658033352</v>
       </c>
       <c r="F7">
-        <v>-0.0192827510482748</v>
+        <v>0.03876326419790892</v>
       </c>
       <c r="G7">
-        <v>-0.02491865489383207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01694689063769667</v>
+      </c>
+      <c r="H7">
+        <v>-0.04503011701241192</v>
+      </c>
+      <c r="I7">
+        <v>-0.01910201655124298</v>
+      </c>
+      <c r="J7">
+        <v>0.01428091137202073</v>
+      </c>
+      <c r="K7">
+        <v>0.03570806272551266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04308885628635527</v>
+        <v>-0.0516398947154174</v>
       </c>
       <c r="C8">
-        <v>-0.02714401298694639</v>
+        <v>0.009863842665419965</v>
       </c>
       <c r="D8">
-        <v>-0.08364450569207858</v>
+        <v>-0.01235453586463828</v>
       </c>
       <c r="E8">
-        <v>-0.08823347339519685</v>
+        <v>-0.00688518291841825</v>
       </c>
       <c r="F8">
-        <v>0.03929064200111953</v>
+        <v>0.008969551777011373</v>
       </c>
       <c r="G8">
-        <v>-0.1276352970015245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.09327059711997804</v>
+      </c>
+      <c r="H8">
+        <v>-0.1124078487261065</v>
+      </c>
+      <c r="I8">
+        <v>0.008132442689002642</v>
+      </c>
+      <c r="J8">
+        <v>-0.03204646062120863</v>
+      </c>
+      <c r="K8">
+        <v>-0.008412638644049108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09492120206064229</v>
+        <v>-0.08953484978102667</v>
       </c>
       <c r="C9">
-        <v>0.03623510765781086</v>
+        <v>0.05430659433226828</v>
       </c>
       <c r="D9">
-        <v>-0.03661171565581501</v>
+        <v>-0.007569690417519767</v>
       </c>
       <c r="E9">
-        <v>-0.04494655345724629</v>
+        <v>-0.01682598275770875</v>
       </c>
       <c r="F9">
-        <v>0.03169197173925603</v>
+        <v>0.00954728743354962</v>
       </c>
       <c r="G9">
-        <v>-0.06893512295529977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06139432613470969</v>
+      </c>
+      <c r="H9">
+        <v>-0.119778134331091</v>
+      </c>
+      <c r="I9">
+        <v>-0.006456698405882266</v>
+      </c>
+      <c r="J9">
+        <v>-0.01171481214623386</v>
+      </c>
+      <c r="K9">
+        <v>-0.004666507638430539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03803068908155578</v>
+        <v>-0.08790575871455684</v>
       </c>
       <c r="C10">
-        <v>-0.1614145416838431</v>
+        <v>-0.1754469085049742</v>
       </c>
       <c r="D10">
-        <v>-0.08899285992129778</v>
+        <v>0.02994157906598204</v>
       </c>
       <c r="E10">
-        <v>-0.02304993160247581</v>
+        <v>-0.03497394675887255</v>
       </c>
       <c r="F10">
-        <v>-0.02925859538475344</v>
+        <v>0.05376950679421606</v>
       </c>
       <c r="G10">
-        <v>-0.00757538562010992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.00252933324676594</v>
+      </c>
+      <c r="H10">
+        <v>0.002776591338283895</v>
+      </c>
+      <c r="I10">
+        <v>-0.006864146141991853</v>
+      </c>
+      <c r="J10">
+        <v>-0.03448417411456216</v>
+      </c>
+      <c r="K10">
+        <v>0.002084408702743879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07705654759765733</v>
+        <v>-0.0796061089537333</v>
       </c>
       <c r="C11">
-        <v>0.060052174071622</v>
+        <v>0.06172179003159808</v>
       </c>
       <c r="D11">
-        <v>-0.01111135769528828</v>
+        <v>-0.01869200828199677</v>
       </c>
       <c r="E11">
-        <v>0.007942332512888743</v>
+        <v>-0.02003361470664272</v>
       </c>
       <c r="F11">
-        <v>0.03112064091058438</v>
+        <v>-0.01978388496405549</v>
       </c>
       <c r="G11">
-        <v>-0.1587357229261242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.07043026522969105</v>
+      </c>
+      <c r="H11">
+        <v>-0.1174252246600277</v>
+      </c>
+      <c r="I11">
+        <v>-0.03696768860626821</v>
+      </c>
+      <c r="J11">
+        <v>0.1069211838276679</v>
+      </c>
+      <c r="K11">
+        <v>-0.009548982117321468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07328576151871768</v>
+        <v>-0.0804379388724811</v>
       </c>
       <c r="C12">
-        <v>0.03661925873680448</v>
+        <v>0.06767383652551058</v>
       </c>
       <c r="D12">
-        <v>-0.004385223990402699</v>
+        <v>-0.02956975666016941</v>
       </c>
       <c r="E12">
-        <v>-0.03085860685130526</v>
+        <v>-0.04391019903694734</v>
       </c>
       <c r="F12">
-        <v>0.01316783420564019</v>
+        <v>-0.02748528711500441</v>
       </c>
       <c r="G12">
-        <v>-0.1518156046629554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0893800464141528</v>
+      </c>
+      <c r="H12">
+        <v>-0.1024306743431409</v>
+      </c>
+      <c r="I12">
+        <v>-0.04991087724978424</v>
+      </c>
+      <c r="J12">
+        <v>0.0912037591311449</v>
+      </c>
+      <c r="K12">
+        <v>0.00746054261161241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06364497198742736</v>
+        <v>-0.04058516150147425</v>
       </c>
       <c r="C13">
-        <v>0.001340298747010429</v>
+        <v>0.02344195018366328</v>
       </c>
       <c r="D13">
-        <v>-0.009575050241544382</v>
+        <v>-0.01686427321927588</v>
       </c>
       <c r="E13">
-        <v>-0.02409437635657021</v>
+        <v>0.006957837717349692</v>
       </c>
       <c r="F13">
-        <v>0.04569558296731718</v>
+        <v>0.02167656257516837</v>
       </c>
       <c r="G13">
-        <v>-0.05171529973537894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04807128541343352</v>
+      </c>
+      <c r="H13">
+        <v>-0.04470111649073011</v>
+      </c>
+      <c r="I13">
+        <v>-0.002193352028133804</v>
+      </c>
+      <c r="J13">
+        <v>-0.06617742279298315</v>
+      </c>
+      <c r="K13">
+        <v>0.01699640094662575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0537269568937269</v>
+        <v>-0.04206181072334422</v>
       </c>
       <c r="C14">
-        <v>0.0053813289258796</v>
+        <v>0.01638695329322616</v>
       </c>
       <c r="D14">
-        <v>-0.03375210080055015</v>
+        <v>0.01091642646121677</v>
       </c>
       <c r="E14">
-        <v>-0.0267798322587607</v>
+        <v>-0.01277138306598205</v>
       </c>
       <c r="F14">
-        <v>0.03413967508057099</v>
+        <v>-0.006966109099953486</v>
       </c>
       <c r="G14">
-        <v>-0.06001253525844576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04603926366118601</v>
+      </c>
+      <c r="H14">
+        <v>-0.05537817949836477</v>
+      </c>
+      <c r="I14">
+        <v>0.03902455851026815</v>
+      </c>
+      <c r="J14">
+        <v>-0.05082187309129745</v>
+      </c>
+      <c r="K14">
+        <v>-0.02384550795926684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03769266275412193</v>
+        <v>-0.02351794625415778</v>
       </c>
       <c r="C15">
-        <v>-0.01180932366135239</v>
+        <v>0.004194059309867512</v>
       </c>
       <c r="D15">
-        <v>-0.01380420699210592</v>
+        <v>-0.007676437564073624</v>
       </c>
       <c r="E15">
-        <v>-0.003792066110937807</v>
+        <v>0.0175988190029508</v>
       </c>
       <c r="F15">
-        <v>0.02035437630547271</v>
+        <v>0.03260722540072845</v>
       </c>
       <c r="G15">
-        <v>-0.02258995661874059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01134094074122441</v>
+      </c>
+      <c r="H15">
+        <v>-0.009177530848266655</v>
+      </c>
+      <c r="I15">
+        <v>0.01287989538468534</v>
+      </c>
+      <c r="J15">
+        <v>-0.05745944673272293</v>
+      </c>
+      <c r="K15">
+        <v>-0.001911876356817924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.08036612349110124</v>
+        <v>-0.08532091497549431</v>
       </c>
       <c r="C16">
-        <v>0.06882939118583901</v>
+        <v>0.06983336378134772</v>
       </c>
       <c r="D16">
-        <v>-0.01877075382753718</v>
+        <v>-0.02534153117070976</v>
       </c>
       <c r="E16">
-        <v>-0.03454533345770679</v>
+        <v>-0.02519470560197798</v>
       </c>
       <c r="F16">
-        <v>0.05309852913449458</v>
+        <v>-0.01698021161008595</v>
       </c>
       <c r="G16">
-        <v>-0.1136153551108611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0982997500204556</v>
+      </c>
+      <c r="H16">
+        <v>-0.1024202794128652</v>
+      </c>
+      <c r="I16">
+        <v>-0.04953922988358008</v>
+      </c>
+      <c r="J16">
+        <v>0.1191310355508596</v>
+      </c>
+      <c r="K16">
+        <v>-0.01743175703520331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05178451855857596</v>
+        <v>-0.04898730311394748</v>
       </c>
       <c r="C20">
-        <v>0.02228385207486429</v>
+        <v>0.03097366687277422</v>
       </c>
       <c r="D20">
-        <v>-0.0175740995133464</v>
+        <v>0.01335603368652648</v>
       </c>
       <c r="E20">
-        <v>-0.02179509503923838</v>
+        <v>0.001976019279144</v>
       </c>
       <c r="F20">
-        <v>0.0225419549160719</v>
+        <v>0.01713979514104735</v>
       </c>
       <c r="G20">
-        <v>-0.1098908487811031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03663165207361079</v>
+      </c>
+      <c r="H20">
+        <v>-0.05586409124133573</v>
+      </c>
+      <c r="I20">
+        <v>0.01936357730046846</v>
+      </c>
+      <c r="J20">
+        <v>-0.03579422212628068</v>
+      </c>
+      <c r="K20">
+        <v>-0.002511852941350203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02809985927668806</v>
+        <v>-0.02797760622041423</v>
       </c>
       <c r="C21">
-        <v>0.03778895600885198</v>
+        <v>0.01664416354232769</v>
       </c>
       <c r="D21">
-        <v>0.002782359380671411</v>
+        <v>0.02874525314362245</v>
       </c>
       <c r="E21">
-        <v>-0.01506872874890941</v>
+        <v>0.01170921702582148</v>
       </c>
       <c r="F21">
-        <v>-0.09463128319977215</v>
+        <v>-0.007652440523191784</v>
       </c>
       <c r="G21">
-        <v>0.06697280299752403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03589104464964848</v>
+      </c>
+      <c r="H21">
+        <v>-0.06809672351630153</v>
+      </c>
+      <c r="I21">
+        <v>-0.03980640047215515</v>
+      </c>
+      <c r="J21">
+        <v>-0.0748682725224387</v>
+      </c>
+      <c r="K21">
+        <v>0.06920825271468738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04378212529008539</v>
+        <v>-0.03524757638571897</v>
       </c>
       <c r="C22">
-        <v>0.003848450859012931</v>
+        <v>0.002521238732852051</v>
       </c>
       <c r="D22">
-        <v>-0.003384127740269954</v>
+        <v>-0.08530778470202829</v>
       </c>
       <c r="E22">
-        <v>-0.5610104367386767</v>
+        <v>0.371037661800098</v>
       </c>
       <c r="F22">
-        <v>0.04173568756092637</v>
+        <v>0.5261163893174267</v>
       </c>
       <c r="G22">
-        <v>0.3342982833545254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1287724298031764</v>
+      </c>
+      <c r="H22">
+        <v>0.1392749213397368</v>
+      </c>
+      <c r="I22">
+        <v>-0.0331142794072674</v>
+      </c>
+      <c r="J22">
+        <v>0.08387772625708838</v>
+      </c>
+      <c r="K22">
+        <v>-0.009360991983575172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04389319443037513</v>
+        <v>-0.03545337698486842</v>
       </c>
       <c r="C23">
-        <v>0.00438468507933514</v>
+        <v>0.002997659170663657</v>
       </c>
       <c r="D23">
-        <v>-0.00499732319763773</v>
+        <v>-0.08645022183968611</v>
       </c>
       <c r="E23">
-        <v>-0.5600844236147225</v>
+        <v>0.3724466081002079</v>
       </c>
       <c r="F23">
-        <v>0.04237010927136566</v>
+        <v>0.5278160017698612</v>
       </c>
       <c r="G23">
-        <v>0.3351700663186233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.129930367531605</v>
+      </c>
+      <c r="H23">
+        <v>0.1356007147366815</v>
+      </c>
+      <c r="I23">
+        <v>-0.03215031857865366</v>
+      </c>
+      <c r="J23">
+        <v>0.08235774955410072</v>
+      </c>
+      <c r="K23">
+        <v>-0.01308561160817569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08507286632161581</v>
+        <v>-0.08740206831424181</v>
       </c>
       <c r="C24">
-        <v>0.04649629369235794</v>
+        <v>0.06191609260424307</v>
       </c>
       <c r="D24">
-        <v>-0.02500720058149173</v>
+        <v>-0.009896214253618897</v>
       </c>
       <c r="E24">
-        <v>-0.0312644828155029</v>
+        <v>-0.02327070955227305</v>
       </c>
       <c r="F24">
-        <v>0.02014760449747248</v>
+        <v>-0.01138789481314579</v>
       </c>
       <c r="G24">
-        <v>-0.1222440047010678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.08424180245799556</v>
+      </c>
+      <c r="H24">
+        <v>-0.1007401811012699</v>
+      </c>
+      <c r="I24">
+        <v>-0.0519743008429316</v>
+      </c>
+      <c r="J24">
+        <v>0.1260485225422377</v>
+      </c>
+      <c r="K24">
+        <v>-0.03806061383943343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07621603021719997</v>
+        <v>-0.08834961243494913</v>
       </c>
       <c r="C25">
-        <v>0.0188478832531058</v>
+        <v>0.04713446220594711</v>
       </c>
       <c r="D25">
-        <v>-0.0257400712902012</v>
+        <v>-0.02180490480152771</v>
       </c>
       <c r="E25">
-        <v>-0.02377779974874112</v>
+        <v>-0.05143586769349247</v>
       </c>
       <c r="F25">
-        <v>0.01176588663701099</v>
+        <v>-0.02539578774868377</v>
       </c>
       <c r="G25">
-        <v>-0.1177510269762071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0943626186295561</v>
+      </c>
+      <c r="H25">
+        <v>-0.0899408557145988</v>
+      </c>
+      <c r="I25">
+        <v>-0.03432762279028668</v>
+      </c>
+      <c r="J25">
+        <v>0.09273635573790187</v>
+      </c>
+      <c r="K25">
+        <v>-0.008301510781873626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05200870567152374</v>
+        <v>-0.04150596560864593</v>
       </c>
       <c r="C26">
-        <v>0.02348679819381194</v>
+        <v>-0.001149760488060499</v>
       </c>
       <c r="D26">
-        <v>-0.03297848632880273</v>
+        <v>0.01901179905069824</v>
       </c>
       <c r="E26">
-        <v>-0.01095195294406745</v>
+        <v>0.01834492519353924</v>
       </c>
       <c r="F26">
-        <v>0.0330078064828208</v>
+        <v>0.002330852800060518</v>
       </c>
       <c r="G26">
-        <v>-0.05682179017024809</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.04376591325912765</v>
+      </c>
+      <c r="H26">
+        <v>-0.03328071646946281</v>
+      </c>
+      <c r="I26">
+        <v>0.02541996726189343</v>
+      </c>
+      <c r="J26">
+        <v>-0.04276829319169135</v>
+      </c>
+      <c r="K26">
+        <v>-0.02247379457790879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06028300528600988</v>
+        <v>-0.1005862243729541</v>
       </c>
       <c r="C28">
-        <v>-0.2973416605686904</v>
+        <v>-0.317280344431005</v>
       </c>
       <c r="D28">
-        <v>-0.0539242228971695</v>
+        <v>-0.01155868265795803</v>
       </c>
       <c r="E28">
-        <v>0.03244779063636452</v>
+        <v>-0.02344451006479769</v>
       </c>
       <c r="F28">
-        <v>-0.0507315284632851</v>
+        <v>-0.0006528772205060441</v>
       </c>
       <c r="G28">
-        <v>0.01546876180359625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0230227902439181</v>
+      </c>
+      <c r="H28">
+        <v>-0.01216255876742158</v>
+      </c>
+      <c r="I28">
+        <v>-0.01542595595441252</v>
+      </c>
+      <c r="J28">
+        <v>0.003472649276172681</v>
+      </c>
+      <c r="K28">
+        <v>0.005276065206483003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05771538158225287</v>
+        <v>-0.03909351353426953</v>
       </c>
       <c r="C29">
-        <v>0.008160327246904247</v>
+        <v>0.01552568053104682</v>
       </c>
       <c r="D29">
-        <v>-0.02810901171743253</v>
+        <v>-0.000814792660430848</v>
       </c>
       <c r="E29">
-        <v>-0.04502250581193554</v>
+        <v>-0.02817903222182974</v>
       </c>
       <c r="F29">
-        <v>0.04193508650545094</v>
+        <v>0.005954795805083726</v>
       </c>
       <c r="G29">
-        <v>-0.03840062197085332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.08764555061712957</v>
+      </c>
+      <c r="H29">
+        <v>-0.04732166934124186</v>
+      </c>
+      <c r="I29">
+        <v>0.01754341510614787</v>
+      </c>
+      <c r="J29">
+        <v>-0.04898212908071573</v>
+      </c>
+      <c r="K29">
+        <v>-0.03160528072905937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1130322027624163</v>
+        <v>-0.107125362646983</v>
       </c>
       <c r="C30">
-        <v>-0.02226759095864547</v>
+        <v>0.05055003681655573</v>
       </c>
       <c r="D30">
-        <v>-0.08145720507287363</v>
+        <v>-0.03980758683278552</v>
       </c>
       <c r="E30">
-        <v>-0.20280904897691</v>
+        <v>0.00624750144566635</v>
       </c>
       <c r="F30">
-        <v>-0.0534319642155236</v>
+        <v>-0.01727094847417236</v>
       </c>
       <c r="G30">
-        <v>-0.1508397516684034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1768445780091827</v>
+      </c>
+      <c r="H30">
+        <v>-0.110423311396712</v>
+      </c>
+      <c r="I30">
+        <v>-0.1893486412137776</v>
+      </c>
+      <c r="J30">
+        <v>-0.002437320117556064</v>
+      </c>
+      <c r="K30">
+        <v>0.02333931821643255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05763987443012542</v>
+        <v>-0.03798827770367121</v>
       </c>
       <c r="C31">
-        <v>0.01734324519071213</v>
+        <v>0.03005025831067665</v>
       </c>
       <c r="D31">
-        <v>0.009714319838775671</v>
+        <v>-0.001447066788599293</v>
       </c>
       <c r="E31">
-        <v>-0.007318313530783676</v>
+        <v>0.004260598103767963</v>
       </c>
       <c r="F31">
-        <v>0.03176072131817848</v>
+        <v>0.00150127280071399</v>
       </c>
       <c r="G31">
-        <v>-0.002373431479146639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.015369609570709</v>
+      </c>
+      <c r="H31">
+        <v>-0.02537806999147268</v>
+      </c>
+      <c r="I31">
+        <v>0.03788923182567181</v>
+      </c>
+      <c r="J31">
+        <v>-0.006605485779891676</v>
+      </c>
+      <c r="K31">
+        <v>-0.05005732981255952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04001572978773615</v>
+        <v>-0.05430280117569874</v>
       </c>
       <c r="C32">
-        <v>-0.0202527221630495</v>
+        <v>-0.0001582510477705852</v>
       </c>
       <c r="D32">
-        <v>-0.003165815005942432</v>
+        <v>0.0182720562848331</v>
       </c>
       <c r="E32">
-        <v>-0.09029844089562056</v>
+        <v>0.007332262974090883</v>
       </c>
       <c r="F32">
-        <v>0.135293293902439</v>
+        <v>-0.05844085105060691</v>
       </c>
       <c r="G32">
-        <v>-0.02055589718920643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02317691266966122</v>
+      </c>
+      <c r="H32">
+        <v>-0.03767518581848146</v>
+      </c>
+      <c r="I32">
+        <v>-0.001866231889442536</v>
+      </c>
+      <c r="J32">
+        <v>-0.008814370779187484</v>
+      </c>
+      <c r="K32">
+        <v>-0.008051364997522696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1111285074440581</v>
+        <v>-0.1018916926281698</v>
       </c>
       <c r="C33">
-        <v>0.01580766271779633</v>
+        <v>0.05599649114067354</v>
       </c>
       <c r="D33">
-        <v>0.01082418032794469</v>
+        <v>-0.06921231142384321</v>
       </c>
       <c r="E33">
-        <v>-0.007063905990364589</v>
+        <v>-0.02592309828282698</v>
       </c>
       <c r="F33">
-        <v>0.0542901248285582</v>
+        <v>-0.01719702619656608</v>
       </c>
       <c r="G33">
-        <v>-0.05758123697350272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03395637270895141</v>
+      </c>
+      <c r="H33">
+        <v>-0.05333193865545838</v>
+      </c>
+      <c r="I33">
+        <v>-0.000318418392034999</v>
+      </c>
+      <c r="J33">
+        <v>0.02770753626689743</v>
+      </c>
+      <c r="K33">
+        <v>-0.01698845007363129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06638373895077831</v>
+        <v>-0.07208761550524917</v>
       </c>
       <c r="C34">
-        <v>0.04699930530620102</v>
+        <v>0.05476913171081357</v>
       </c>
       <c r="D34">
-        <v>-0.009800568686493415</v>
+        <v>-0.01645410247650751</v>
       </c>
       <c r="E34">
-        <v>-0.009115714498837711</v>
+        <v>-0.02644805073539041</v>
       </c>
       <c r="F34">
-        <v>0.03494556890437923</v>
+        <v>-0.01640257933290954</v>
       </c>
       <c r="G34">
-        <v>-0.09291186251304712</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.08502015435536953</v>
+      </c>
+      <c r="H34">
+        <v>-0.0952188011607617</v>
+      </c>
+      <c r="I34">
+        <v>-0.03229027192034521</v>
+      </c>
+      <c r="J34">
+        <v>0.09343720890926348</v>
+      </c>
+      <c r="K34">
+        <v>-0.00824482153812634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04582530786806287</v>
+        <v>-0.02052260712745758</v>
       </c>
       <c r="C35">
-        <v>0.007084630418771703</v>
+        <v>0.0149427648523396</v>
       </c>
       <c r="D35">
-        <v>0.01943820475317073</v>
+        <v>-0.005441239533777898</v>
       </c>
       <c r="E35">
-        <v>-0.01154907365752289</v>
+        <v>-0.004560907587165999</v>
       </c>
       <c r="F35">
-        <v>-0.03756137628577845</v>
+        <v>-0.001995512519736281</v>
       </c>
       <c r="G35">
-        <v>-0.06234610407238698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05642249520727396</v>
+      </c>
+      <c r="H35">
+        <v>-0.02818790652567041</v>
+      </c>
+      <c r="I35">
+        <v>0.004595403300191382</v>
+      </c>
+      <c r="J35">
+        <v>-0.02276876578906394</v>
+      </c>
+      <c r="K35">
+        <v>0.03517874920773067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03737631632476787</v>
+        <v>-0.02986300373258913</v>
       </c>
       <c r="C36">
-        <v>0.00392425699972197</v>
+        <v>0.008531499821483997</v>
       </c>
       <c r="D36">
-        <v>-0.02116508993078618</v>
+        <v>-0.005149071737962948</v>
       </c>
       <c r="E36">
-        <v>-0.03445519907853004</v>
+        <v>0.007890080023567758</v>
       </c>
       <c r="F36">
-        <v>0.01274651069188776</v>
+        <v>0.005174617321917576</v>
       </c>
       <c r="G36">
-        <v>-0.05672849621239037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.04400935799895792</v>
+      </c>
+      <c r="H36">
+        <v>-0.05210685617594431</v>
+      </c>
+      <c r="I36">
+        <v>0.0008290465064324313</v>
+      </c>
+      <c r="J36">
+        <v>-0.02927064294779076</v>
+      </c>
+      <c r="K36">
+        <v>-0.02955392912773876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05500153260172111</v>
+        <v>-0.02153092759204812</v>
       </c>
       <c r="C38">
-        <v>0.01739706634637646</v>
+        <v>0.01895873379320445</v>
       </c>
       <c r="D38">
-        <v>-0.006526482462541604</v>
+        <v>-0.01188732756298157</v>
       </c>
       <c r="E38">
-        <v>-0.01203601947712036</v>
+        <v>0.001637397840622196</v>
       </c>
       <c r="F38">
-        <v>0.0126280236207192</v>
+        <v>0.02341238364607896</v>
       </c>
       <c r="G38">
-        <v>-0.05786998815473203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01336138752924828</v>
+      </c>
+      <c r="H38">
+        <v>0.04245284731601093</v>
+      </c>
+      <c r="I38">
+        <v>-0.0004918313174642709</v>
+      </c>
+      <c r="J38">
+        <v>-0.01975688377924872</v>
+      </c>
+      <c r="K38">
+        <v>-0.04486553977191544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1091749124342856</v>
+        <v>-0.1229400892998767</v>
       </c>
       <c r="C39">
-        <v>0.03761245068484154</v>
+        <v>0.08958920906906166</v>
       </c>
       <c r="D39">
-        <v>-0.009365527467350553</v>
+        <v>-0.04972797758771372</v>
       </c>
       <c r="E39">
-        <v>-0.07172918902533608</v>
+        <v>-0.07989722532642168</v>
       </c>
       <c r="F39">
-        <v>0.02127509902836074</v>
+        <v>-0.07202785886439635</v>
       </c>
       <c r="G39">
-        <v>-0.1473821266231806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1305309548792644</v>
+      </c>
+      <c r="H39">
+        <v>-0.08275146849355616</v>
+      </c>
+      <c r="I39">
+        <v>-0.061004211134515</v>
+      </c>
+      <c r="J39">
+        <v>0.1567371542326995</v>
+      </c>
+      <c r="K39">
+        <v>0.06309229800254471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05254315303146336</v>
+        <v>-0.0202406100910721</v>
       </c>
       <c r="C40">
-        <v>0.02086022668387006</v>
+        <v>0.03396370168697421</v>
       </c>
       <c r="D40">
-        <v>0.01811553311595632</v>
+        <v>0.002730597246166802</v>
       </c>
       <c r="E40">
-        <v>-0.09955892584171271</v>
+        <v>0.04143240488325631</v>
       </c>
       <c r="F40">
-        <v>-0.001254435517354499</v>
+        <v>0.05500874054691163</v>
       </c>
       <c r="G40">
-        <v>-0.2403974841372934</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.06669776541872868</v>
+      </c>
+      <c r="H40">
+        <v>-0.09677817147895371</v>
+      </c>
+      <c r="I40">
+        <v>-0.06713182197167819</v>
+      </c>
+      <c r="J40">
+        <v>-0.06695887707631866</v>
+      </c>
+      <c r="K40">
+        <v>-0.01971425597161766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04840396302829455</v>
+        <v>-0.0318375172404969</v>
       </c>
       <c r="C41">
-        <v>0.02800104132965676</v>
+        <v>0.01470101109377314</v>
       </c>
       <c r="D41">
-        <v>-0.001276644882620372</v>
+        <v>0.01018421780691489</v>
       </c>
       <c r="E41">
-        <v>0.01210713042893741</v>
+        <v>-0.01109666360498693</v>
       </c>
       <c r="F41">
-        <v>0.03316989058193676</v>
+        <v>-0.002722080274904089</v>
       </c>
       <c r="G41">
-        <v>-0.0614340800108159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01519563335713171</v>
+      </c>
+      <c r="H41">
+        <v>-0.01807261483842401</v>
+      </c>
+      <c r="I41">
+        <v>0.01837172485952671</v>
+      </c>
+      <c r="J41">
+        <v>-0.01357594836007488</v>
+      </c>
+      <c r="K41">
+        <v>-0.02873746082659272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07332575902093157</v>
+        <v>-0.04753572303251244</v>
       </c>
       <c r="C43">
-        <v>0.02815628156561697</v>
+        <v>0.01877413909605965</v>
       </c>
       <c r="D43">
-        <v>-0.02043174475674396</v>
+        <v>-0.01448607386729256</v>
       </c>
       <c r="E43">
-        <v>-0.022413075246245</v>
+        <v>-0.0034896129830928</v>
       </c>
       <c r="F43">
-        <v>0.02051720778724838</v>
+        <v>0.01004363898455024</v>
       </c>
       <c r="G43">
-        <v>-0.004457458588462032</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03062734207292332</v>
+      </c>
+      <c r="H43">
+        <v>-0.004987025476415321</v>
+      </c>
+      <c r="I43">
+        <v>0.01123970816222559</v>
+      </c>
+      <c r="J43">
+        <v>-0.003365749615022153</v>
+      </c>
+      <c r="K43">
+        <v>-0.0447077524874473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07302047994422349</v>
+        <v>-0.115442836338638</v>
       </c>
       <c r="C44">
-        <v>0.01731638411756211</v>
+        <v>0.09627597596139331</v>
       </c>
       <c r="D44">
-        <v>-0.09665292978384568</v>
+        <v>-0.04008401583878607</v>
       </c>
       <c r="E44">
-        <v>-0.05609939472168422</v>
+        <v>-0.01360907983693179</v>
       </c>
       <c r="F44">
-        <v>0.06414383292430714</v>
+        <v>0.1125493820530273</v>
       </c>
       <c r="G44">
-        <v>-0.0963884324521843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.225632733566282</v>
+      </c>
+      <c r="H44">
+        <v>-0.134327519724049</v>
+      </c>
+      <c r="I44">
+        <v>-0.1268568461631514</v>
+      </c>
+      <c r="J44">
+        <v>-0.0105804389142953</v>
+      </c>
+      <c r="K44">
+        <v>0.03957427529850358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04970989483599004</v>
+        <v>-0.02767181003629529</v>
       </c>
       <c r="C46">
-        <v>0.03997234642925188</v>
+        <v>0.01145917293540621</v>
       </c>
       <c r="D46">
-        <v>-0.0274392692792687</v>
+        <v>-0.01168042497667233</v>
       </c>
       <c r="E46">
-        <v>-0.05056175227351004</v>
+        <v>0.002729538133147478</v>
       </c>
       <c r="F46">
-        <v>0.02442122235124789</v>
+        <v>0.04492081510341944</v>
       </c>
       <c r="G46">
-        <v>-0.02750476159008342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05235046296345414</v>
+      </c>
+      <c r="H46">
+        <v>-0.02965880873799484</v>
+      </c>
+      <c r="I46">
+        <v>0.009746114902556063</v>
+      </c>
+      <c r="J46">
+        <v>-0.04353186701746534</v>
+      </c>
+      <c r="K46">
+        <v>-0.006453381822152849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04851545100684006</v>
+        <v>-0.04098375624519662</v>
       </c>
       <c r="C47">
-        <v>-0.0009069818917945301</v>
+        <v>0.01658950935946419</v>
       </c>
       <c r="D47">
-        <v>-0.007870710862308604</v>
+        <v>-0.001338120370704173</v>
       </c>
       <c r="E47">
-        <v>-0.06410894062953509</v>
+        <v>0.009211196434562795</v>
       </c>
       <c r="F47">
-        <v>-0.005765292483466978</v>
+        <v>0.007810224740027099</v>
       </c>
       <c r="G47">
-        <v>0.003383458705652174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04539533877557834</v>
+      </c>
+      <c r="H47">
+        <v>-0.02817783102634882</v>
+      </c>
+      <c r="I47">
+        <v>0.01612392506360967</v>
+      </c>
+      <c r="J47">
+        <v>-0.04535588212575791</v>
+      </c>
+      <c r="K47">
+        <v>-0.016936536060656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04472506398732258</v>
+        <v>-0.03840440066158931</v>
       </c>
       <c r="C48">
-        <v>-0.003694017485193401</v>
+        <v>0.0002782488822444654</v>
       </c>
       <c r="D48">
-        <v>0.005306232114661062</v>
+        <v>-0.0093313193414961</v>
       </c>
       <c r="E48">
-        <v>-0.03824330204380479</v>
+        <v>0.002090623098445741</v>
       </c>
       <c r="F48">
-        <v>0.009742656075015194</v>
+        <v>0.001109553342501423</v>
       </c>
       <c r="G48">
-        <v>-0.04393543760374176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.04964509250731311</v>
+      </c>
+      <c r="H48">
+        <v>-0.0431072507383311</v>
+      </c>
+      <c r="I48">
+        <v>0.01634911819439475</v>
+      </c>
+      <c r="J48">
+        <v>-0.0465091296243886</v>
+      </c>
+      <c r="K48">
+        <v>0.02653687501990366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2346982851638537</v>
+        <v>-0.2318129949052022</v>
       </c>
       <c r="C49">
-        <v>0.08407101290329169</v>
+        <v>0.03850571282716474</v>
       </c>
       <c r="D49">
-        <v>-0.01955516634344868</v>
+        <v>0.06074314271665384</v>
       </c>
       <c r="E49">
-        <v>0.08574475377752723</v>
+        <v>-0.05535692907936712</v>
       </c>
       <c r="F49">
-        <v>-0.1622341561911538</v>
+        <v>0.005972077607773961</v>
       </c>
       <c r="G49">
-        <v>0.073604789372097</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.211356241815492</v>
+      </c>
+      <c r="H49">
+        <v>0.1619748670813656</v>
+      </c>
+      <c r="I49">
+        <v>-0.2210817465724449</v>
+      </c>
+      <c r="J49">
+        <v>0.2060665278575838</v>
+      </c>
+      <c r="K49">
+        <v>-0.07100644530647272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05397780071479459</v>
+        <v>-0.04307723544853486</v>
       </c>
       <c r="C50">
-        <v>0.01331394625071297</v>
+        <v>0.02335110848757553</v>
       </c>
       <c r="D50">
-        <v>0.002065124068130565</v>
+        <v>0.00696416355242411</v>
       </c>
       <c r="E50">
-        <v>-0.02246803280140688</v>
+        <v>0.004173420341714292</v>
       </c>
       <c r="F50">
-        <v>0.05318918721818224</v>
+        <v>-0.001538055759360646</v>
       </c>
       <c r="G50">
-        <v>0.003841356209029231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.042587969474666</v>
+      </c>
+      <c r="H50">
+        <v>-0.03523250634164724</v>
+      </c>
+      <c r="I50">
+        <v>0.02152826515622152</v>
+      </c>
+      <c r="J50">
+        <v>-0.01103396412342444</v>
+      </c>
+      <c r="K50">
+        <v>-0.04453219225833405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03741560363695241</v>
+        <v>-0.01953384499961964</v>
       </c>
       <c r="C51">
-        <v>0.01121206520346822</v>
+        <v>-0.003639442302971537</v>
       </c>
       <c r="D51">
-        <v>-0.01773512234605885</v>
+        <v>-0.01334073530148782</v>
       </c>
       <c r="E51">
-        <v>0.009093301164594008</v>
+        <v>-0.01198893779352424</v>
       </c>
       <c r="F51">
-        <v>0.003509734799864089</v>
+        <v>0.0163113014300887</v>
       </c>
       <c r="G51">
-        <v>0.01292880679749865</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02774763624779383</v>
+      </c>
+      <c r="H51">
+        <v>0.004989887336893382</v>
+      </c>
+      <c r="I51">
+        <v>-0.02313578120053461</v>
+      </c>
+      <c r="J51">
+        <v>0.02515292423598604</v>
+      </c>
+      <c r="K51">
+        <v>-0.01224938180598043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07572317367356285</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04243891086306837</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0006163614073319841</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01724659849264279</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01261651619396177</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.06067111120607444</v>
+      </c>
+      <c r="H52">
+        <v>0.03796589457583043</v>
+      </c>
+      <c r="I52">
+        <v>0.1383468248569489</v>
+      </c>
+      <c r="J52">
+        <v>0.01991739930107253</v>
+      </c>
+      <c r="K52">
+        <v>0.05103681574842633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1603866409198741</v>
+        <v>-0.1638229883672251</v>
       </c>
       <c r="C53">
-        <v>-0.0003113208259180678</v>
+        <v>0.02986090768223229</v>
       </c>
       <c r="D53">
-        <v>-0.01024143367717585</v>
+        <v>-0.008905996605214272</v>
       </c>
       <c r="E53">
-        <v>0.05803894206650887</v>
+        <v>-0.02077045268879828</v>
       </c>
       <c r="F53">
-        <v>0.2321738269675581</v>
+        <v>0.01329571930863224</v>
       </c>
       <c r="G53">
-        <v>0.09278731083461607</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.01536921963217731</v>
+      </c>
+      <c r="H53">
+        <v>0.1038626352985403</v>
+      </c>
+      <c r="I53">
+        <v>0.2773017373739325</v>
+      </c>
+      <c r="J53">
+        <v>0.01509306286359575</v>
+      </c>
+      <c r="K53">
+        <v>-0.09372524805222189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05460971967558631</v>
+        <v>-0.0520565583897887</v>
       </c>
       <c r="C54">
-        <v>0.006159829774638255</v>
+        <v>0.02818944596441965</v>
       </c>
       <c r="D54">
-        <v>-0.02048040536475592</v>
+        <v>0.002652175133740143</v>
       </c>
       <c r="E54">
-        <v>-0.04182986266572802</v>
+        <v>0.0126590893676741</v>
       </c>
       <c r="F54">
-        <v>0.02784266473828289</v>
+        <v>0.02338001177669545</v>
       </c>
       <c r="G54">
-        <v>-0.06716648831774273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.06334508949665345</v>
+      </c>
+      <c r="H54">
+        <v>-0.1226961540558121</v>
+      </c>
+      <c r="I54">
+        <v>0.03563750794473833</v>
+      </c>
+      <c r="J54">
+        <v>-0.1251658070272597</v>
+      </c>
+      <c r="K54">
+        <v>0.004928657846040749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09382432170297642</v>
+        <v>-0.08710533032414157</v>
       </c>
       <c r="C55">
-        <v>0.01500693462154646</v>
+        <v>0.02654948201844501</v>
       </c>
       <c r="D55">
-        <v>-0.02043431125721623</v>
+        <v>-0.05266410498587377</v>
       </c>
       <c r="E55">
-        <v>0.004484192369502708</v>
+        <v>-0.03621027600347784</v>
       </c>
       <c r="F55">
-        <v>0.1780599105530163</v>
+        <v>-0.003617322331735282</v>
       </c>
       <c r="G55">
-        <v>0.03133760129833754</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0168318544506188</v>
+      </c>
+      <c r="H55">
+        <v>0.01595547399531734</v>
+      </c>
+      <c r="I55">
+        <v>0.1680402955714975</v>
+      </c>
+      <c r="J55">
+        <v>0.004081534620973237</v>
+      </c>
+      <c r="K55">
+        <v>-0.05056065323377047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1614898769436074</v>
+        <v>-0.1597736441249591</v>
       </c>
       <c r="C56">
-        <v>0.00115199500086714</v>
+        <v>0.04005404638912423</v>
       </c>
       <c r="D56">
-        <v>-0.00050520047776861</v>
+        <v>-0.01818457734875766</v>
       </c>
       <c r="E56">
-        <v>0.05795013837207544</v>
+        <v>-0.04367705487462817</v>
       </c>
       <c r="F56">
-        <v>0.2310666893926106</v>
+        <v>0.006256282574165714</v>
       </c>
       <c r="G56">
-        <v>0.09432972070552596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04337716662226324</v>
+      </c>
+      <c r="H56">
+        <v>0.06892059360064798</v>
+      </c>
+      <c r="I56">
+        <v>0.2162488325652545</v>
+      </c>
+      <c r="J56">
+        <v>0.0361248970391103</v>
+      </c>
+      <c r="K56">
+        <v>-0.1211036057473734</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02264740552333392</v>
+        <v>-0.039791633975278</v>
       </c>
       <c r="C58">
-        <v>0.05985319824263446</v>
+        <v>0.02983682288059277</v>
       </c>
       <c r="D58">
-        <v>0.0126637867725506</v>
+        <v>-0.01304050917646542</v>
       </c>
       <c r="E58">
-        <v>-0.2568166097163107</v>
+        <v>0.0584463525007371</v>
       </c>
       <c r="F58">
-        <v>-0.3977391638268089</v>
+        <v>0.0592290004495027</v>
       </c>
       <c r="G58">
-        <v>-0.2091626934161584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1150890286208245</v>
+      </c>
+      <c r="H58">
+        <v>0.003883184543589425</v>
+      </c>
+      <c r="I58">
+        <v>-0.08662575535307762</v>
+      </c>
+      <c r="J58">
+        <v>-0.1082305706139939</v>
+      </c>
+      <c r="K58">
+        <v>0.2278822668741007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1528744092563268</v>
+        <v>-0.1760530809341517</v>
       </c>
       <c r="C59">
-        <v>-0.3912833139908021</v>
+        <v>-0.3011297909325352</v>
       </c>
       <c r="D59">
-        <v>-0.0712871656098466</v>
+        <v>-0.03015847286949851</v>
       </c>
       <c r="E59">
-        <v>0.0753733210722282</v>
+        <v>-0.06074261209504923</v>
       </c>
       <c r="F59">
-        <v>0.04631693430908925</v>
+        <v>-0.01074988246854068</v>
       </c>
       <c r="G59">
-        <v>-0.02822918982063389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02418910499241137</v>
+      </c>
+      <c r="H59">
+        <v>-0.05558683060161865</v>
+      </c>
+      <c r="I59">
+        <v>0.03293827575118878</v>
+      </c>
+      <c r="J59">
+        <v>0.05720113862309897</v>
+      </c>
+      <c r="K59">
+        <v>-0.0203693075928572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2668597260062627</v>
+        <v>-0.2748423947284501</v>
       </c>
       <c r="C60">
-        <v>0.07074144476800738</v>
+        <v>0.1463841129617535</v>
       </c>
       <c r="D60">
-        <v>-0.073460452296313</v>
+        <v>0.0493229839225523</v>
       </c>
       <c r="E60">
-        <v>0.08154516040315948</v>
+        <v>-0.1286139853328797</v>
       </c>
       <c r="F60">
-        <v>-0.1038981443413768</v>
+        <v>0.04165744779783594</v>
       </c>
       <c r="G60">
-        <v>0.1592728456394081</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04514714764682248</v>
+      </c>
+      <c r="H60">
+        <v>0.2272374594345763</v>
+      </c>
+      <c r="I60">
+        <v>-0.2537306161790054</v>
+      </c>
+      <c r="J60">
+        <v>0.04244843594826021</v>
+      </c>
+      <c r="K60">
+        <v>-0.003289729768316699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09560432497617379</v>
+        <v>-0.1101775061805607</v>
       </c>
       <c r="C61">
-        <v>0.01900336730978861</v>
+        <v>0.05262300792588807</v>
       </c>
       <c r="D61">
-        <v>-0.001186071649712563</v>
+        <v>-0.03198520674514303</v>
       </c>
       <c r="E61">
-        <v>-0.02205593280812191</v>
+        <v>-0.06681020324265741</v>
       </c>
       <c r="F61">
-        <v>0.02506933162073918</v>
+        <v>-0.02920764689536125</v>
       </c>
       <c r="G61">
-        <v>-0.06077742531202576</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1089035800942693</v>
+      </c>
+      <c r="H61">
+        <v>-0.1008714743365142</v>
+      </c>
+      <c r="I61">
+        <v>0.002763155762897216</v>
+      </c>
+      <c r="J61">
+        <v>0.1141885814218921</v>
+      </c>
+      <c r="K61">
+        <v>0.01168257661472632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1444979363960751</v>
+        <v>-0.1540738122368384</v>
       </c>
       <c r="C62">
-        <v>0.0280516929762149</v>
+        <v>0.04326285794580206</v>
       </c>
       <c r="D62">
-        <v>0.03570174185561859</v>
+        <v>-0.02626812296276166</v>
       </c>
       <c r="E62">
-        <v>0.130931658038736</v>
+        <v>-0.03584162623754066</v>
       </c>
       <c r="F62">
-        <v>0.241442144968071</v>
+        <v>-0.01340589441957178</v>
       </c>
       <c r="G62">
-        <v>0.05210197226656946</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03198675285550275</v>
+      </c>
+      <c r="H62">
+        <v>0.09049899577200511</v>
+      </c>
+      <c r="I62">
+        <v>0.2311813540576234</v>
+      </c>
+      <c r="J62">
+        <v>-0.007807804185430233</v>
+      </c>
+      <c r="K62">
+        <v>-0.07836260791998836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04297243806337166</v>
+        <v>-0.03860454341671652</v>
       </c>
       <c r="C63">
-        <v>0.01705327984158781</v>
+        <v>0.001813570102526433</v>
       </c>
       <c r="D63">
-        <v>0.01017175343738188</v>
+        <v>-0.01084001948124164</v>
       </c>
       <c r="E63">
-        <v>-0.01081855907004669</v>
+        <v>0.02193254066010777</v>
       </c>
       <c r="F63">
-        <v>0.03081590028808246</v>
+        <v>-0.02031511329424236</v>
       </c>
       <c r="G63">
-        <v>-0.03752982957476073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.03027915306569406</v>
+      </c>
+      <c r="H63">
+        <v>-0.05962070051087836</v>
+      </c>
+      <c r="I63">
+        <v>-0.002460745666259697</v>
+      </c>
+      <c r="J63">
+        <v>-0.01459853155017341</v>
+      </c>
+      <c r="K63">
+        <v>-0.03653447208447511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1090689423187532</v>
+        <v>-0.1005027566171467</v>
       </c>
       <c r="C64">
-        <v>0.01179001064861788</v>
+        <v>0.02258939665146983</v>
       </c>
       <c r="D64">
-        <v>-0.03752771982829606</v>
+        <v>0.00581923969375376</v>
       </c>
       <c r="E64">
-        <v>-0.04069785101526195</v>
+        <v>-0.03265513122614946</v>
       </c>
       <c r="F64">
-        <v>-0.01015160807430549</v>
+        <v>0.03928996278618905</v>
       </c>
       <c r="G64">
-        <v>-0.05412752121854239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05587202589646291</v>
+      </c>
+      <c r="H64">
+        <v>-0.04552881918382838</v>
+      </c>
+      <c r="I64">
+        <v>-0.08008373569248289</v>
+      </c>
+      <c r="J64">
+        <v>-0.007270475909378489</v>
+      </c>
+      <c r="K64">
+        <v>-0.01723069945347629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1189112870837263</v>
+        <v>-0.1152760499490024</v>
       </c>
       <c r="C65">
-        <v>0.02619696776105658</v>
+        <v>0.005118383061137541</v>
       </c>
       <c r="D65">
-        <v>-0.02283295472439552</v>
+        <v>0.005482275960180605</v>
       </c>
       <c r="E65">
-        <v>-0.04429505782313989</v>
+        <v>0.02766172522337321</v>
       </c>
       <c r="F65">
-        <v>-0.2404224810945654</v>
+        <v>-0.01998143565837864</v>
       </c>
       <c r="G65">
-        <v>0.1387164203016862</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.03364762548596458</v>
+      </c>
+      <c r="H65">
+        <v>0.005845177675390075</v>
+      </c>
+      <c r="I65">
+        <v>-0.2108725501024064</v>
+      </c>
+      <c r="J65">
+        <v>-0.4651401695467013</v>
+      </c>
+      <c r="K65">
+        <v>-0.292561898694489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1608064744087863</v>
+        <v>-0.1500090577756113</v>
       </c>
       <c r="C66">
-        <v>0.04614243853158952</v>
+        <v>0.1083091372613415</v>
       </c>
       <c r="D66">
-        <v>0.01667763522474183</v>
+        <v>-0.04201178114798686</v>
       </c>
       <c r="E66">
-        <v>-0.02199370140481249</v>
+        <v>-0.08109710755910277</v>
       </c>
       <c r="F66">
-        <v>0.06075969119338161</v>
+        <v>-0.07876286920713642</v>
       </c>
       <c r="G66">
-        <v>-0.2833564441174807</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1213079667878041</v>
+      </c>
+      <c r="H66">
+        <v>-0.0784745141839274</v>
+      </c>
+      <c r="I66">
+        <v>-0.07766280792554163</v>
+      </c>
+      <c r="J66">
+        <v>0.2336709368129695</v>
+      </c>
+      <c r="K66">
+        <v>-0.01539884479384765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1076947352992753</v>
+        <v>-0.07907683458820117</v>
       </c>
       <c r="C67">
-        <v>0.0384583186334515</v>
+        <v>0.05159039176634633</v>
       </c>
       <c r="D67">
-        <v>-0.02190404253174928</v>
+        <v>-0.07743876052760106</v>
       </c>
       <c r="E67">
-        <v>0.01027706821533758</v>
+        <v>-0.0230896633092394</v>
       </c>
       <c r="F67">
-        <v>0.0250112241286912</v>
+        <v>0.02283942547885043</v>
       </c>
       <c r="G67">
-        <v>-0.04969208378634582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.05910889095522462</v>
+      </c>
+      <c r="H67">
+        <v>0.01752472979453856</v>
+      </c>
+      <c r="I67">
+        <v>0.01477851729387229</v>
+      </c>
+      <c r="J67">
+        <v>0.03675169570285582</v>
+      </c>
+      <c r="K67">
+        <v>-0.02684308109503126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.03876053500722994</v>
+        <v>-0.08463949023258308</v>
       </c>
       <c r="C68">
-        <v>-0.2947371634133092</v>
+        <v>-0.2849048571794049</v>
       </c>
       <c r="D68">
-        <v>-0.02777423805516565</v>
+        <v>-0.005504377034485253</v>
       </c>
       <c r="E68">
-        <v>0.01383419977158194</v>
+        <v>-0.0109106142630654</v>
       </c>
       <c r="F68">
-        <v>-0.01138867241868676</v>
+        <v>-0.02358580524683098</v>
       </c>
       <c r="G68">
-        <v>0.02313290881035229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03597124996882092</v>
+      </c>
+      <c r="H68">
+        <v>-0.03048930252138921</v>
+      </c>
+      <c r="I68">
+        <v>-0.008362404452812345</v>
+      </c>
+      <c r="J68">
+        <v>-0.004724424578167277</v>
+      </c>
+      <c r="K68">
+        <v>-0.005607699615622093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04793888431311356</v>
+        <v>-0.03796525555452613</v>
       </c>
       <c r="C69">
-        <v>0.01304991045993783</v>
+        <v>0.004882347572563103</v>
       </c>
       <c r="D69">
-        <v>0.005602883743744881</v>
+        <v>-0.02666878000306572</v>
       </c>
       <c r="E69">
-        <v>-0.002148183511813579</v>
+        <v>-0.008248048444881943</v>
       </c>
       <c r="F69">
-        <v>0.00231049280935666</v>
+        <v>0.007546451202836501</v>
       </c>
       <c r="G69">
-        <v>-0.01907392556724597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01987177890842511</v>
+      </c>
+      <c r="H69">
+        <v>8.949230335297449e-06</v>
+      </c>
+      <c r="I69">
+        <v>0.01037037576366348</v>
+      </c>
+      <c r="J69">
+        <v>-0.01728456250259071</v>
+      </c>
+      <c r="K69">
+        <v>-0.03263751405202343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07575281097221138</v>
+        <v>-0.04593254873306153</v>
       </c>
       <c r="C70">
-        <v>0.00589643779126385</v>
+        <v>0.001432520035106723</v>
       </c>
       <c r="D70">
-        <v>-0.03462553629458306</v>
+        <v>-0.03094800878410762</v>
       </c>
       <c r="E70">
-        <v>0.02482286571405528</v>
+        <v>-0.04626820511572409</v>
       </c>
       <c r="F70">
-        <v>-0.05989174886625392</v>
+        <v>0.006391519254103742</v>
       </c>
       <c r="G70">
-        <v>-0.001387759068348456</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01232767456013417</v>
+      </c>
+      <c r="H70">
+        <v>-0.01486455594308638</v>
+      </c>
+      <c r="I70">
+        <v>-0.01180783023507001</v>
+      </c>
+      <c r="J70">
+        <v>-0.1708230859797977</v>
+      </c>
+      <c r="K70">
+        <v>0.01725872936386335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.0486837356620803</v>
+        <v>-0.09963096290405821</v>
       </c>
       <c r="C71">
-        <v>-0.2982103592630534</v>
+        <v>-0.2994257519052715</v>
       </c>
       <c r="D71">
-        <v>-0.04508252133278808</v>
+        <v>-0.007471225901716288</v>
       </c>
       <c r="E71">
-        <v>0.01096113518035591</v>
+        <v>-0.02720851109001837</v>
       </c>
       <c r="F71">
-        <v>-0.01081544621173493</v>
+        <v>0.003039554277864585</v>
       </c>
       <c r="G71">
-        <v>-0.01038076856023536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04421687612150175</v>
+      </c>
+      <c r="H71">
+        <v>-0.02365383526027233</v>
+      </c>
+      <c r="I71">
+        <v>-0.01510625180853981</v>
+      </c>
+      <c r="J71">
+        <v>0.02582536813416234</v>
+      </c>
+      <c r="K71">
+        <v>-0.02446310134604367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1447176249331657</v>
+        <v>-0.1455751310466121</v>
       </c>
       <c r="C72">
-        <v>-0.04490539113873553</v>
+        <v>-0.003545430591464247</v>
       </c>
       <c r="D72">
-        <v>0.2367260464057449</v>
+        <v>-0.01154582932907424</v>
       </c>
       <c r="E72">
-        <v>0.02938970287840815</v>
+        <v>0.0705242751602724</v>
       </c>
       <c r="F72">
-        <v>0.02249185382366136</v>
+        <v>-0.07237426221231584</v>
       </c>
       <c r="G72">
-        <v>-0.06024045037710457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.001863263007730496</v>
+      </c>
+      <c r="H72">
+        <v>0.01983054687001995</v>
+      </c>
+      <c r="I72">
+        <v>0.03088532925373859</v>
+      </c>
+      <c r="J72">
+        <v>-0.04626761389464286</v>
+      </c>
+      <c r="K72">
+        <v>-0.1263036695437865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2840020496774397</v>
+        <v>-0.243196201489116</v>
       </c>
       <c r="C73">
-        <v>0.1553396668371646</v>
+        <v>0.09373406533759457</v>
       </c>
       <c r="D73">
-        <v>-0.05889011413312147</v>
+        <v>-0.0239570986044017</v>
       </c>
       <c r="E73">
-        <v>0.1579150776801669</v>
+        <v>-0.1591432418455445</v>
       </c>
       <c r="F73">
-        <v>-0.3388162049090546</v>
+        <v>0.02964196482889862</v>
       </c>
       <c r="G73">
-        <v>0.2170992405329726</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3080591811296727</v>
+      </c>
+      <c r="H73">
+        <v>0.2799013579456922</v>
+      </c>
+      <c r="I73">
+        <v>-0.2990943798856089</v>
+      </c>
+      <c r="J73">
+        <v>0.1224474824053554</v>
+      </c>
+      <c r="K73">
+        <v>0.03909187725288759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09969916010682288</v>
+        <v>-0.1139030820102322</v>
       </c>
       <c r="C74">
-        <v>0.03577596595506465</v>
+        <v>0.04971047860630793</v>
       </c>
       <c r="D74">
-        <v>-0.0009975934691547959</v>
+        <v>-0.02394827761526303</v>
       </c>
       <c r="E74">
-        <v>0.0157282509581671</v>
+        <v>-0.01034412836569121</v>
       </c>
       <c r="F74">
-        <v>0.09181395961272404</v>
+        <v>0.0004999063089866462</v>
       </c>
       <c r="G74">
-        <v>0.04186991567837063</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05570915913942567</v>
+      </c>
+      <c r="H74">
+        <v>0.08057612488745605</v>
+      </c>
+      <c r="I74">
+        <v>0.1108439942647997</v>
+      </c>
+      <c r="J74">
+        <v>0.01906035464944069</v>
+      </c>
+      <c r="K74">
+        <v>-0.09006630023284228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09404371294574028</v>
+        <v>-0.1109443212372737</v>
       </c>
       <c r="C75">
-        <v>0.01952235396153178</v>
+        <v>0.04057846493224428</v>
       </c>
       <c r="D75">
-        <v>0.02574085247851944</v>
+        <v>-0.01033590314692807</v>
       </c>
       <c r="E75">
-        <v>0.03420095339265952</v>
+        <v>0.003433780283998504</v>
       </c>
       <c r="F75">
-        <v>0.1090842109024781</v>
+        <v>-0.009115568867104327</v>
       </c>
       <c r="G75">
-        <v>0.07577257031679407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005890972806489216</v>
+      </c>
+      <c r="H75">
+        <v>0.04187837443262043</v>
+      </c>
+      <c r="I75">
+        <v>0.1605600011916254</v>
+      </c>
+      <c r="J75">
+        <v>0.003750216652067606</v>
+      </c>
+      <c r="K75">
+        <v>-0.04307323569327859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1370836763727011</v>
+        <v>-0.0550343330906639</v>
       </c>
       <c r="C76">
-        <v>0.03227654113308857</v>
+        <v>0.01461857559220574</v>
       </c>
       <c r="D76">
-        <v>-0.01581444069946501</v>
+        <v>-0.02910248858333893</v>
       </c>
       <c r="E76">
-        <v>-0.01139482404848189</v>
+        <v>-0.01837289896654902</v>
       </c>
       <c r="F76">
-        <v>0.2280714891215788</v>
+        <v>0.02401506471633502</v>
       </c>
       <c r="G76">
-        <v>0.1298154636068954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.03948217742808759</v>
+      </c>
+      <c r="H76">
+        <v>0.04069068975679018</v>
+      </c>
+      <c r="I76">
+        <v>0.1282007314097461</v>
+      </c>
+      <c r="J76">
+        <v>0.009259227923237341</v>
+      </c>
+      <c r="K76">
+        <v>-0.08146653956930824</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08882335580998335</v>
+        <v>-0.07507811906969032</v>
       </c>
       <c r="C77">
-        <v>-0.01049532264383767</v>
+        <v>0.03877279373214163</v>
       </c>
       <c r="D77">
-        <v>-0.04497036320102759</v>
+        <v>0.01519194752097939</v>
       </c>
       <c r="E77">
-        <v>-0.07141736515351864</v>
+        <v>-0.01581611373175694</v>
       </c>
       <c r="F77">
-        <v>-0.1259035635124142</v>
+        <v>0.04150841897083326</v>
       </c>
       <c r="G77">
-        <v>-0.1603539539317872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08223903592812561</v>
+      </c>
+      <c r="H77">
+        <v>-0.2009559194130145</v>
+      </c>
+      <c r="I77">
+        <v>-0.1144437265916637</v>
+      </c>
+      <c r="J77">
+        <v>-0.1177794647336472</v>
+      </c>
+      <c r="K77">
+        <v>-0.07097145234035948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2193982179491974</v>
+        <v>-0.1533030980173662</v>
       </c>
       <c r="C78">
-        <v>0.05683902468817403</v>
+        <v>0.08022161384494204</v>
       </c>
       <c r="D78">
-        <v>-0.07310489079978809</v>
+        <v>-0.1008306980239181</v>
       </c>
       <c r="E78">
-        <v>-0.1896286729185995</v>
+        <v>0.210288720852507</v>
       </c>
       <c r="F78">
-        <v>-0.003372936839046284</v>
+        <v>0.146812875006012</v>
       </c>
       <c r="G78">
-        <v>-0.1619917239269058</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6519415066430881</v>
+      </c>
+      <c r="H78">
+        <v>-0.5777123446185994</v>
+      </c>
+      <c r="I78">
+        <v>0.1776077809954878</v>
+      </c>
+      <c r="J78">
+        <v>0.08616411332238957</v>
+      </c>
+      <c r="K78">
+        <v>0.06785009457940999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1370903698596149</v>
+        <v>-0.1370604836866065</v>
       </c>
       <c r="C79">
-        <v>0.01485804698377138</v>
+        <v>0.04181418637028415</v>
       </c>
       <c r="D79">
-        <v>0.006422828674151995</v>
+        <v>0.007669629416379553</v>
       </c>
       <c r="E79">
-        <v>0.02477260699894042</v>
+        <v>-0.01331707790709656</v>
       </c>
       <c r="F79">
-        <v>0.1619033512848219</v>
+        <v>-0.003651860967521832</v>
       </c>
       <c r="G79">
-        <v>0.02712516233888908</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.03053783800088187</v>
+      </c>
+      <c r="H79">
+        <v>0.04783570511551308</v>
+      </c>
+      <c r="I79">
+        <v>0.1543287308351221</v>
+      </c>
+      <c r="J79">
+        <v>0.008285395226185946</v>
+      </c>
+      <c r="K79">
+        <v>-0.1109052683475717</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03328331083898389</v>
+        <v>-0.06611000446739232</v>
       </c>
       <c r="C80">
-        <v>0.009342180565848339</v>
+        <v>0.04340181510858573</v>
       </c>
       <c r="D80">
-        <v>-0.01946464170594989</v>
+        <v>-0.04726661113290846</v>
       </c>
       <c r="E80">
-        <v>0.03077538196201489</v>
+        <v>-0.05266532731714126</v>
       </c>
       <c r="F80">
-        <v>-0.01635580902754295</v>
+        <v>-0.01757702988686785</v>
       </c>
       <c r="G80">
-        <v>-0.07723178810504043</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02814989685626137</v>
+      </c>
+      <c r="H80">
+        <v>-0.07395671180688608</v>
+      </c>
+      <c r="I80">
+        <v>0.06875101689866867</v>
+      </c>
+      <c r="J80">
+        <v>-0.06207990620524047</v>
+      </c>
+      <c r="K80">
+        <v>0.189642564734112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1114294536569174</v>
+        <v>-0.1330512054900029</v>
       </c>
       <c r="C81">
-        <v>0.008422868970091899</v>
+        <v>0.04726266339668828</v>
       </c>
       <c r="D81">
-        <v>-0.009484134155404174</v>
+        <v>-0.008456723841992135</v>
       </c>
       <c r="E81">
-        <v>0.01461348413223758</v>
+        <v>-0.01168940391322913</v>
       </c>
       <c r="F81">
-        <v>0.1247720783770551</v>
+        <v>0.009194401379752477</v>
       </c>
       <c r="G81">
-        <v>0.05681920811639304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.04852506056328853</v>
+      </c>
+      <c r="H81">
+        <v>0.02632733478114549</v>
+      </c>
+      <c r="I81">
+        <v>0.1433310717213699</v>
+      </c>
+      <c r="J81">
+        <v>0.02907118859690763</v>
+      </c>
+      <c r="K81">
+        <v>-0.0730600499508138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1103470567733479</v>
+        <v>-0.1471754090712588</v>
       </c>
       <c r="C82">
-        <v>0.0268433559602355</v>
+        <v>0.03975811237024429</v>
       </c>
       <c r="D82">
-        <v>-0.04595464448785695</v>
+        <v>-0.01661769374876668</v>
       </c>
       <c r="E82">
-        <v>0.05082734740433742</v>
+        <v>-0.0602988773115478</v>
       </c>
       <c r="F82">
-        <v>0.2226744875877071</v>
+        <v>-0.005391153045598108</v>
       </c>
       <c r="G82">
-        <v>0.03636746082515312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05590170693365705</v>
+      </c>
+      <c r="H82">
+        <v>0.1168115984321807</v>
+      </c>
+      <c r="I82">
+        <v>0.2690900384447015</v>
+      </c>
+      <c r="J82">
+        <v>0.06789953741581564</v>
+      </c>
+      <c r="K82">
+        <v>-0.008289073074772033</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1062165046609773</v>
+        <v>-0.09436845129863805</v>
       </c>
       <c r="C83">
-        <v>0.05173148321579461</v>
+        <v>0.09284773936824577</v>
       </c>
       <c r="D83">
-        <v>-0.06272832770843409</v>
+        <v>0.01223961924788696</v>
       </c>
       <c r="E83">
-        <v>0.01554793325000959</v>
+        <v>0.0003199650866257182</v>
       </c>
       <c r="F83">
-        <v>-0.07003859011091826</v>
+        <v>0.01088598472364349</v>
       </c>
       <c r="G83">
-        <v>-0.09540772221373009</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05754254010286059</v>
+      </c>
+      <c r="H83">
+        <v>-0.07541889804026276</v>
+      </c>
+      <c r="I83">
+        <v>0.01639262612201114</v>
+      </c>
+      <c r="J83">
+        <v>-0.1763108882953931</v>
+      </c>
+      <c r="K83">
+        <v>0.0738312433550536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05144635477220801</v>
+        <v>-0.06108054347429818</v>
       </c>
       <c r="C84">
-        <v>0.01596474077109293</v>
+        <v>-0.004020868024531046</v>
       </c>
       <c r="D84">
-        <v>0.05507859121860307</v>
+        <v>0.02310806194247875</v>
       </c>
       <c r="E84">
-        <v>-0.0326399441597728</v>
+        <v>-0.02842658383655378</v>
       </c>
       <c r="F84">
-        <v>0.0223435080460759</v>
+        <v>-0.01216952908056278</v>
       </c>
       <c r="G84">
-        <v>0.03968275925245554</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.002272692837727809</v>
+      </c>
+      <c r="H84">
+        <v>0.01642244542462536</v>
+      </c>
+      <c r="I84">
+        <v>-0.129215282283003</v>
+      </c>
+      <c r="J84">
+        <v>0.2108454948698458</v>
+      </c>
+      <c r="K84">
+        <v>0.4283442916678074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1013035170197889</v>
+        <v>-0.11902387283213</v>
       </c>
       <c r="C85">
-        <v>0.02302023625531906</v>
+        <v>0.03349804175933435</v>
       </c>
       <c r="D85">
-        <v>-0.0227900995745652</v>
+        <v>-0.005224680550460254</v>
       </c>
       <c r="E85">
-        <v>0.02573881178774671</v>
+        <v>-0.03649051289529415</v>
       </c>
       <c r="F85">
-        <v>0.2004903546184201</v>
+        <v>0.01624715771033438</v>
       </c>
       <c r="G85">
-        <v>0.04586595684036332</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0324915772162226</v>
+      </c>
+      <c r="H85">
+        <v>0.03481427171082058</v>
+      </c>
+      <c r="I85">
+        <v>0.1909251858611794</v>
+      </c>
+      <c r="J85">
+        <v>0.01680300172090997</v>
+      </c>
+      <c r="K85">
+        <v>-0.08628173864524678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06894786951125624</v>
+        <v>-0.1311996934283132</v>
       </c>
       <c r="C86">
-        <v>0.02037841917815493</v>
+        <v>0.04021090275357994</v>
       </c>
       <c r="D86">
-        <v>-0.05710401316919219</v>
+        <v>0.9310818534525297</v>
       </c>
       <c r="E86">
-        <v>-0.0567920151866772</v>
+        <v>0.201896991686888</v>
       </c>
       <c r="F86">
-        <v>0.01204072280811609</v>
+        <v>-0.01161804682640614</v>
       </c>
       <c r="G86">
-        <v>-0.09521952289358655</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04611002778156891</v>
+      </c>
+      <c r="H86">
+        <v>-0.05381205342733832</v>
+      </c>
+      <c r="I86">
+        <v>0.07436925180097623</v>
+      </c>
+      <c r="J86">
+        <v>0.02920251042484562</v>
+      </c>
+      <c r="K86">
+        <v>0.09459941367153152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1047043053276457</v>
+        <v>-0.1190704674263549</v>
       </c>
       <c r="C87">
-        <v>0.05300427493880141</v>
+        <v>0.09341999721643861</v>
       </c>
       <c r="D87">
-        <v>-0.02441301385599246</v>
+        <v>-0.003749140415307719</v>
       </c>
       <c r="E87">
-        <v>-0.06395403825559931</v>
+        <v>-0.01557782375963426</v>
       </c>
       <c r="F87">
-        <v>-0.01924436862942297</v>
+        <v>0.02587693338431493</v>
       </c>
       <c r="G87">
-        <v>-0.106520973907297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08326547499322723</v>
+      </c>
+      <c r="H87">
+        <v>-0.1134785247640769</v>
+      </c>
+      <c r="I87">
+        <v>-0.04745224411164383</v>
+      </c>
+      <c r="J87">
+        <v>-0.1825218295519032</v>
+      </c>
+      <c r="K87">
+        <v>0.0502936494440288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06946735172432592</v>
+        <v>-0.05767698645368347</v>
       </c>
       <c r="C88">
-        <v>0.04044934377100681</v>
+        <v>0.0393854843988299</v>
       </c>
       <c r="D88">
-        <v>-0.01947401662178152</v>
+        <v>-0.01479081047887982</v>
       </c>
       <c r="E88">
-        <v>-0.01265328857482171</v>
+        <v>-0.04361882116841792</v>
       </c>
       <c r="F88">
-        <v>0.01705815500358593</v>
+        <v>-0.02232699341156583</v>
       </c>
       <c r="G88">
-        <v>-0.0547960544833673</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02071341401201376</v>
+      </c>
+      <c r="H88">
+        <v>-0.02319310625377881</v>
+      </c>
+      <c r="I88">
+        <v>-0.00236243945711204</v>
+      </c>
+      <c r="J88">
+        <v>0.001335820326156443</v>
+      </c>
+      <c r="K88">
+        <v>-0.0236990964558293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09209311230617571</v>
+        <v>-0.1517571507941159</v>
       </c>
       <c r="C89">
-        <v>-0.3750026909056109</v>
+        <v>-0.3713454615557282</v>
       </c>
       <c r="D89">
-        <v>-0.1043442611563748</v>
+        <v>-0.007622745891749417</v>
       </c>
       <c r="E89">
-        <v>-0.01689427147701648</v>
+        <v>-0.01364819573199941</v>
       </c>
       <c r="F89">
-        <v>-0.04807421944200158</v>
+        <v>0.06843238494868864</v>
       </c>
       <c r="G89">
-        <v>-0.01378167675734955</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001277514509012842</v>
+      </c>
+      <c r="H89">
+        <v>-0.04385097395214017</v>
+      </c>
+      <c r="I89">
+        <v>-0.01591404894707101</v>
+      </c>
+      <c r="J89">
+        <v>0.004268723072121458</v>
+      </c>
+      <c r="K89">
+        <v>0.07545808341572394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07281320401345175</v>
+        <v>-0.1141820835835797</v>
       </c>
       <c r="C90">
-        <v>-0.2931965082217572</v>
+        <v>-0.2867078390766241</v>
       </c>
       <c r="D90">
-        <v>-0.04667827100121769</v>
+        <v>0.0007926417894351256</v>
       </c>
       <c r="E90">
-        <v>-0.04485733554757834</v>
+        <v>-0.03055742761765165</v>
       </c>
       <c r="F90">
-        <v>-0.03679961675772211</v>
+        <v>0.005070028864046724</v>
       </c>
       <c r="G90">
-        <v>-0.04359590688991444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04525922675103319</v>
+      </c>
+      <c r="H90">
+        <v>-0.03558166401549787</v>
+      </c>
+      <c r="I90">
+        <v>-0.04720840730245507</v>
+      </c>
+      <c r="J90">
+        <v>0.01764312966384294</v>
+      </c>
+      <c r="K90">
+        <v>0.02513045318493663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08263507833619864</v>
+        <v>-0.08346722236601288</v>
       </c>
       <c r="C91">
-        <v>0.01922471199762775</v>
+        <v>0.03622480106982067</v>
       </c>
       <c r="D91">
-        <v>-0.009493324320150315</v>
+        <v>0.01313585366734707</v>
       </c>
       <c r="E91">
-        <v>0.01721949951641634</v>
+        <v>-0.01504477122711071</v>
       </c>
       <c r="F91">
-        <v>0.07550915985238554</v>
+        <v>0.01453163405443164</v>
       </c>
       <c r="G91">
-        <v>0.07728345463928002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01428903989356502</v>
+      </c>
+      <c r="H91">
+        <v>0.04697991916192787</v>
+      </c>
+      <c r="I91">
+        <v>0.1148779985905407</v>
+      </c>
+      <c r="J91">
+        <v>0.001350270685215105</v>
+      </c>
+      <c r="K91">
+        <v>-0.04551460705480478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.06782556758128193</v>
+        <v>-0.1245253034960666</v>
       </c>
       <c r="C92">
-        <v>-0.3461044679608248</v>
+        <v>-0.338294758779483</v>
       </c>
       <c r="D92">
-        <v>-0.07070794227540074</v>
+        <v>-0.007707961151493966</v>
       </c>
       <c r="E92">
-        <v>-0.01500699571062133</v>
+        <v>-0.0007061609940663126</v>
       </c>
       <c r="F92">
-        <v>-0.04899591739107725</v>
+        <v>0.03816950463747494</v>
       </c>
       <c r="G92">
-        <v>0.01363544578512907</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01736401654259893</v>
+      </c>
+      <c r="H92">
+        <v>-0.07185918470873262</v>
+      </c>
+      <c r="I92">
+        <v>0.0217710433136792</v>
+      </c>
+      <c r="J92">
+        <v>0.03509982225202597</v>
+      </c>
+      <c r="K92">
+        <v>0.01427922061118208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08380018184746085</v>
+        <v>-0.1200238236645526</v>
       </c>
       <c r="C93">
-        <v>-0.2983045244297218</v>
+        <v>-0.3176373977420885</v>
       </c>
       <c r="D93">
-        <v>-0.04029642833321905</v>
+        <v>0.01771053035428246</v>
       </c>
       <c r="E93">
-        <v>-0.01108628595720492</v>
+        <v>-0.04937704534313313</v>
       </c>
       <c r="F93">
-        <v>-0.02365168016804426</v>
+        <v>-0.006849393809774943</v>
       </c>
       <c r="G93">
-        <v>0.0186945801827921</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03995458130006797</v>
+      </c>
+      <c r="H93">
+        <v>-0.0001413944824166395</v>
+      </c>
+      <c r="I93">
+        <v>-0.01672512578630042</v>
+      </c>
+      <c r="J93">
+        <v>0.0007477117446098973</v>
+      </c>
+      <c r="K93">
+        <v>0.02277838930295347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09442279040049245</v>
+        <v>-0.1269932038191756</v>
       </c>
       <c r="C94">
-        <v>0.04829954507888101</v>
+        <v>0.05235399539239079</v>
       </c>
       <c r="D94">
-        <v>0.009524720809190325</v>
+        <v>-0.02980414578409842</v>
       </c>
       <c r="E94">
-        <v>0.003035617945996492</v>
+        <v>-0.007794310283744045</v>
       </c>
       <c r="F94">
-        <v>0.1274079341515529</v>
+        <v>0.01893349305518196</v>
       </c>
       <c r="G94">
-        <v>0.08821730518868819</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.01280040085546369</v>
+      </c>
+      <c r="H94">
+        <v>0.07973036789347089</v>
+      </c>
+      <c r="I94">
+        <v>0.1253315828513756</v>
+      </c>
+      <c r="J94">
+        <v>0.04561052392237818</v>
+      </c>
+      <c r="K94">
+        <v>-0.0444523319472246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1352980434364602</v>
+        <v>-0.1200021714852438</v>
       </c>
       <c r="C95">
-        <v>0.07057793135223006</v>
+        <v>0.05254060970191685</v>
       </c>
       <c r="D95">
-        <v>-0.06184390208659133</v>
+        <v>-0.01590152586335949</v>
       </c>
       <c r="E95">
-        <v>-0.03908111216489909</v>
+        <v>-0.01587798849760487</v>
       </c>
       <c r="F95">
-        <v>-0.02883123801321312</v>
+        <v>0.06741243069726775</v>
       </c>
       <c r="G95">
-        <v>-0.1190910565478818</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.008164165251668513</v>
+      </c>
+      <c r="H95">
+        <v>-0.1205936860082345</v>
+      </c>
+      <c r="I95">
+        <v>-0.1702113109818081</v>
+      </c>
+      <c r="J95">
+        <v>-0.05344923973216657</v>
+      </c>
+      <c r="K95">
+        <v>0.1065411051483142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009883093593791801</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0008708788950713074</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.000650340639060495</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005810830691185874</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.003944678272611861</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.00135952377396282</v>
+      </c>
+      <c r="H96">
+        <v>-0.01656520484888789</v>
+      </c>
+      <c r="I96">
+        <v>-0.01111880366176949</v>
+      </c>
+      <c r="J96">
+        <v>-0.01388259635275947</v>
+      </c>
+      <c r="K96">
+        <v>-0.0212027575783331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.1927728430436707</v>
+        <v>-0.1831851243891406</v>
       </c>
       <c r="C97">
-        <v>-0.126366546151714</v>
+        <v>-0.01230252158796917</v>
       </c>
       <c r="D97">
-        <v>0.9066122846612081</v>
+        <v>-0.1791469813701876</v>
       </c>
       <c r="E97">
-        <v>-0.05076047133966732</v>
+        <v>0.720903360449389</v>
       </c>
       <c r="F97">
-        <v>-0.05715368078152997</v>
+        <v>-0.5844375609057672</v>
       </c>
       <c r="G97">
-        <v>-0.04078993402800125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04123382370058086</v>
+      </c>
+      <c r="H97">
+        <v>0.1119684003331037</v>
+      </c>
+      <c r="I97">
+        <v>-0.08617281116590988</v>
+      </c>
+      <c r="J97">
+        <v>0.05213854494706533</v>
+      </c>
+      <c r="K97">
+        <v>0.01791410570504064</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3204606060907033</v>
+        <v>-0.2678396662828933</v>
       </c>
       <c r="C98">
-        <v>0.06313270302706364</v>
+        <v>0.04443953399243886</v>
       </c>
       <c r="D98">
-        <v>-0.04756245726520466</v>
+        <v>0.01161089825093489</v>
       </c>
       <c r="E98">
-        <v>0.2477828676826093</v>
+        <v>-0.01687661265088368</v>
       </c>
       <c r="F98">
-        <v>-0.2525494873418674</v>
+        <v>0.04461797070620391</v>
       </c>
       <c r="G98">
-        <v>0.24914734412974</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2550002564724564</v>
+      </c>
+      <c r="H98">
+        <v>0.2606362041936113</v>
+      </c>
+      <c r="I98">
+        <v>0.06414193904581707</v>
+      </c>
+      <c r="J98">
+        <v>-0.3414162943288086</v>
+      </c>
+      <c r="K98">
+        <v>0.3187490095615217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08785605906409186</v>
+        <v>-0.05464736118787172</v>
       </c>
       <c r="C99">
-        <v>0.022345862359367</v>
+        <v>0.003343512936134196</v>
       </c>
       <c r="D99">
-        <v>-0.009009777697680299</v>
+        <v>-0.03333181239419668</v>
       </c>
       <c r="E99">
-        <v>0.01541845459435103</v>
+        <v>-0.001254221024494829</v>
       </c>
       <c r="F99">
-        <v>-0.008088356696915048</v>
+        <v>0.02300768244155086</v>
       </c>
       <c r="G99">
-        <v>-0.0266908841938144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01566598688819405</v>
+      </c>
+      <c r="H99">
+        <v>-0.009922033430573074</v>
+      </c>
+      <c r="I99">
+        <v>-0.004412724384292794</v>
+      </c>
+      <c r="J99">
+        <v>0.02466954852517014</v>
+      </c>
+      <c r="K99">
+        <v>-0.06398095734421803</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02756838701428472</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.03535211079085711</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1639008683991167</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.02824743047315588</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.0446792798042797</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.137826228622602</v>
+      </c>
+      <c r="H100">
+        <v>0.06303560807734027</v>
+      </c>
+      <c r="I100">
+        <v>0.2093617997436141</v>
+      </c>
+      <c r="J100">
+        <v>-0.2072422979165061</v>
+      </c>
+      <c r="K100">
+        <v>0.5603395340822233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05797392887214524</v>
+        <v>-0.03893048602607394</v>
       </c>
       <c r="C101">
-        <v>0.007737112944078493</v>
+        <v>0.0157779610223276</v>
       </c>
       <c r="D101">
-        <v>-0.02824929076612867</v>
+        <v>-0.001431249037327859</v>
       </c>
       <c r="E101">
-        <v>-0.04321781847117261</v>
+        <v>-0.02897880209083438</v>
       </c>
       <c r="F101">
-        <v>0.04095531511661378</v>
+        <v>0.005313058260621211</v>
       </c>
       <c r="G101">
-        <v>-0.03847919563119069</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.08470278207033138</v>
+      </c>
+      <c r="H101">
+        <v>-0.04694887232323156</v>
+      </c>
+      <c r="I101">
+        <v>0.02012393320744711</v>
+      </c>
+      <c r="J101">
+        <v>-0.04729135891385707</v>
+      </c>
+      <c r="K101">
+        <v>-0.02879312327318021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
